--- a/project management/nobetle_db.xlsx
+++ b/project management/nobetle_db.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mesut/Dropbox/YTU/nobetle/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mesut/nobetle/project management/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="16720" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="14400" windowHeight="16720" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -158,9 +158,6 @@
     <t>owner</t>
   </si>
   <si>
-    <t>pass*</t>
-  </si>
-  <si>
     <t>un/favorabledays colums…</t>
   </si>
   <si>
@@ -168,6 +165,9 @@
   </si>
   <si>
     <t>MAR2017</t>
+  </si>
+  <si>
+    <t>password</t>
   </si>
 </sst>
 </file>
@@ -254,56 +254,56 @@
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -586,426 +586,426 @@
   <dimension ref="B2:N29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="3" customWidth="1"/>
-    <col min="2" max="16384" width="12.1640625" style="3"/>
+    <col min="1" max="1" width="3.33203125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="12.1640625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="B4" s="3">
+        <v>10698798</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="3">
+        <v>12345</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="B5" s="3">
+        <v>10698798</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1001</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="3">
+        <v>98765</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="B6" s="3">
+        <v>10698798</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="3">
+        <v>15</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1234567890</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B10" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+    </row>
+    <row r="11" spans="2:14" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="15" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="4" spans="2:14" ht="32" x14ac:dyDescent="0.2">
-      <c r="B4" s="5">
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+    </row>
+    <row r="12" spans="2:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="B12" s="3">
         <v>10698798</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="5">
+      <c r="C12" s="7">
         <v>1000</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="5">
-        <v>12345</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" ht="32" x14ac:dyDescent="0.2">
-      <c r="B5" s="5">
+      <c r="D12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0</v>
+      </c>
+      <c r="F12" s="7">
+        <v>5</v>
+      </c>
+      <c r="G12" s="7">
+        <v>1</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B13" s="3">
         <v>10698798</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="5">
+      <c r="C13" s="3">
         <v>1001</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="5">
-        <v>98765</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" ht="32" x14ac:dyDescent="0.2">
-      <c r="B6" s="5">
+      <c r="D13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="7">
+        <v>1</v>
+      </c>
+      <c r="F13" s="7">
+        <v>5</v>
+      </c>
+      <c r="G13" s="7">
+        <v>1</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B16" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="8"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B18" s="3">
         <v>10698798</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="5">
-        <v>15</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" ht="32" x14ac:dyDescent="0.2">
-      <c r="B7" s="5">
-        <v>0</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="5">
-        <v>1234567890</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="2:14" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="4" t="s">
+      <c r="C18" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="7">
+        <v>1000</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="7">
+        <v>22</v>
+      </c>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B19" s="3">
+        <v>10698798</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
+      <c r="E19" s="7">
+        <v>1001</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B20" s="3">
+        <v>10698798</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="3">
+        <v>2</v>
+      </c>
+      <c r="E20" s="7">
+        <v>1000</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B23" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="7" t="s">
+      <c r="C24" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="D24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B25" s="3">
+        <v>10698798</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1</v>
+      </c>
+      <c r="E25" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B26" s="3">
+        <v>10698799</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="3">
         <v>2</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="L11" s="14" t="s">
+      <c r="E26" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B27" s="11"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B29" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-    </row>
-    <row r="12" spans="2:14" ht="32" x14ac:dyDescent="0.2">
-      <c r="B12" s="5">
-        <v>10698798</v>
-      </c>
-      <c r="C12" s="9">
-        <v>1000</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="9">
-        <v>0</v>
-      </c>
-      <c r="F12" s="9">
-        <v>5</v>
-      </c>
-      <c r="G12" s="9">
-        <v>1</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B13" s="5">
-        <v>10698798</v>
-      </c>
-      <c r="C13" s="5">
-        <v>1001</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="9">
-        <v>1</v>
-      </c>
-      <c r="F13" s="9">
-        <v>5</v>
-      </c>
-      <c r="G13" s="9">
-        <v>1</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B17" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="10"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B18" s="5">
-        <v>10698798</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="5">
-        <v>1</v>
-      </c>
-      <c r="E18" s="9">
-        <v>1000</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18" s="9">
-        <v>22</v>
-      </c>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B19" s="5">
-        <v>10698798</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="5">
-        <v>1</v>
-      </c>
-      <c r="E19" s="9">
-        <v>1001</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" s="9">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B20" s="5">
-        <v>10698798</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="5">
-        <v>2</v>
-      </c>
-      <c r="E20" s="9">
-        <v>1000</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" s="9">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B23" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B24" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B25" s="5">
-        <v>10698798</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" s="5">
-        <v>1</v>
-      </c>
-      <c r="E25" s="5">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B26" s="5">
-        <v>10698799</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D26" s="5">
-        <v>2</v>
-      </c>
-      <c r="E26" s="5">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B27" s="13"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B29" s="15" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/project management/nobetle_db.xlsx
+++ b/project management/nobetle_db.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="14400" windowHeight="16720" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="21660" windowHeight="16720" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -174,7 +174,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -208,6 +208,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -248,9 +256,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -306,7 +319,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="7">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -585,8 +603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -994,7 +1012,7 @@
         <v>2</v>
       </c>
       <c r="E26" s="3">
-        <v>700</v>
+        <v>350</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.2">
@@ -1023,5 +1041,6 @@
     <hyperlink ref="G7" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>